--- a/data/Final - Ne Obliviscaris - Patreon Exclusive Top 10 (Responses).xlsx
+++ b/data/Final - Ne Obliviscaris - Patreon Exclusive Top 10 (Responses).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="402">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Myrath - Shehili</t>
   </si>
   <si>
-    <t xml:space="preserve">Thank You, Scientist - Terraformer </t>
+    <t xml:space="preserve">Thank You Scientist - Terraformer </t>
   </si>
   <si>
     <t xml:space="preserve">Louise Burns - Portraits</t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">Katharos XIII - Palindrome</t>
   </si>
   <si>
-    <t xml:space="preserve">clipping. - There Existed an Addiction to Blood</t>
+    <t xml:space="preserve">clipping - There Existed an Addiction to Blood</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua Ignota - Caligula</t>
@@ -433,6 +433,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">タニクミとオオフジツボ </t>
     </r>
@@ -452,6 +453,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">アレキサンドライトの冒険</t>
     </r>
@@ -772,13 +774,16 @@
     <t xml:space="preserve">Mysþyrming - Algleymi</t>
   </si>
   <si>
+    <t xml:space="preserve">clipping. - There Existed an Addiction to Blood</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cult of Luna - A Dawn of Fear</t>
   </si>
   <si>
     <t xml:space="preserve">We Lost the Sea - Triumph &amp; Disaster</t>
   </si>
   <si>
-    <t xml:space="preserve">Dawn Ray'd - Behold Sedition Plainsong</t>
+    <t xml:space="preserve">Dawn Ray’d - Behold Sedition Plainsong</t>
   </si>
   <si>
     <t xml:space="preserve">Cattle Decapitation - Death Atlas </t>
@@ -961,13 +966,10 @@
     <t xml:space="preserve">While She Sleeps - So What</t>
   </si>
   <si>
-    <t xml:space="preserve">Shadows of Intent - Melancholy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disillision - The Liberation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battlebeast - No more hollywood endings </t>
+    <t xml:space="preserve">Shadow of Intent - Melancholy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle beast - No more hollywood endings </t>
   </si>
   <si>
     <t xml:space="preserve">Numenorean - Adore </t>
@@ -1018,9 +1020,6 @@
     <t xml:space="preserve">Shrezzers - Relationships</t>
   </si>
   <si>
-    <t xml:space="preserve">Sleep Taken - Sundowning</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thornhill - Where We Go When We Die</t>
   </si>
   <si>
@@ -1093,9 +1092,6 @@
     <t xml:space="preserve">Chelsea Wolfe - Birth Of Violence</t>
   </si>
   <si>
-    <t xml:space="preserve">Shadow of Intent - Melancholy </t>
-  </si>
-  <si>
     <t xml:space="preserve">Swallow the Sun - When a Shadow is Forced into Light </t>
   </si>
   <si>
@@ -1144,7 +1140,7 @@
     <t xml:space="preserve">Hanging Garden - Into That Good Night</t>
   </si>
   <si>
-    <t xml:space="preserve"> Swallow theSun - When A Shadow Is Forced Into The Light</t>
+    <t xml:space="preserve"> Swallow the Sun - When A Shadow Is Forced Into The Light</t>
   </si>
   <si>
     <t xml:space="preserve">Asylum Pyre - N°4</t>
@@ -1198,9 +1194,6 @@
     <t xml:space="preserve">Mgła - Age Of Excuse</t>
   </si>
   <si>
-    <t xml:space="preserve">Nightlands - Umbra Astra Luna</t>
-  </si>
-  <si>
     <t xml:space="preserve">Infant Annihilator - The Battle of Yaldabaoth</t>
   </si>
   <si>
@@ -1213,9 +1206,6 @@
     <t xml:space="preserve">Volbeat - Rewind, Replay, Rebound</t>
   </si>
   <si>
-    <t xml:space="preserve">Dawn Ray’d - Behold Sedition Plainsong</t>
-  </si>
-  <si>
     <t xml:space="preserve">Necronautical - Apotheosis</t>
   </si>
   <si>
@@ -1256,9 +1246,6 @@
   </si>
   <si>
     <t xml:space="preserve">Blood Incantation - Hidden History pf the Human Race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obsequaie - The Palms of Sorrowed Kings</t>
   </si>
   <si>
     <t xml:space="preserve">Ex Libris - Ann</t>
@@ -1306,6 +1293,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1390,19 +1378,19 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="52.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="50.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="48.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="49.64"/>
@@ -2780,10 +2768,10 @@
         <v>240</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>94</v>
@@ -2795,10 +2783,10 @@
         <v>37</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>32</v>
@@ -2809,10 +2797,10 @@
         <v>43805.6717804167</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>34</v>
@@ -2821,22 +2809,22 @@
         <v>91</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>119</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2844,10 +2832,10 @@
         <v>43805.6786796991</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>37</v>
@@ -2865,13 +2853,13 @@
         <v>166</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2879,22 +2867,22 @@
         <v>43805.6935568403</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>96</v>
@@ -2903,7 +2891,7 @@
         <v>156</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>80</v>
@@ -2917,7 +2905,7 @@
         <v>190</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>32</v>
@@ -2935,10 +2923,10 @@
         <v>227</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>44</v>
@@ -2949,10 +2937,10 @@
         <v>43806.1266913889</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>44</v>
@@ -2970,13 +2958,13 @@
         <v>74</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>166</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2993,7 +2981,7 @@
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>31</v>
@@ -3022,31 +3010,31 @@
         <v>20</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>154</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3054,7 +3042,7 @@
         <v>43806.494768831</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>37</v>
@@ -3063,13 +3051,13 @@
         <v>34</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>221</v>
@@ -3078,10 +3066,10 @@
         <v>21</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3089,34 +3077,34 @@
         <v>43806.7887649074</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>193</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3127,28 +3115,28 @@
         <v>80</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>176</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>161</v>
@@ -3162,10 +3150,10 @@
         <v>34</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>176</v>
@@ -3174,7 +3162,7 @@
         <v>62</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -3189,16 +3177,16 @@
         <v>37</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>105</v>
@@ -3207,10 +3195,10 @@
         <v>80</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
@@ -3221,7 +3209,7 @@
         <v>43809.6841468056</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>80</v>
@@ -3233,16 +3221,16 @@
         <v>95</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>305</v>
+        <v>193</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>75</v>
@@ -3265,7 +3253,7 @@
         <v>309</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>310</v>
@@ -3396,7 +3384,7 @@
         <v>43812.34455</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>35</v>
@@ -3405,7 +3393,7 @@
         <v>37</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>31</v>
@@ -3414,13 +3402,13 @@
         <v>32</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>161</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>195</v>
@@ -3434,7 +3422,7 @@
         <v>88</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>35</v>
@@ -3455,7 +3443,7 @@
         <v>310</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>34</v>
@@ -3466,10 +3454,10 @@
         <v>43813.0741051852</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>35</v>
@@ -3487,13 +3475,13 @@
         <v>37</v>
       </c>
       <c r="I60" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3504,13 +3492,13 @@
         <v>147</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>169</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>163</v>
@@ -3522,7 +3510,7 @@
         <v>158</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>226</v>
@@ -3536,10 +3524,10 @@
         <v>43813.4547485995</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>34</v>
@@ -3548,22 +3536,22 @@
         <v>70</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I62" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3571,34 +3559,34 @@
         <v>43813.5102390972</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>164</v>
       </c>
       <c r="J63" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3615,7 +3603,7 @@
         <v>190</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>83</v>
@@ -3624,16 +3612,16 @@
         <v>37</v>
       </c>
       <c r="H64" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,19 +3629,19 @@
         <v>43813.5762827662</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>119</v>
@@ -3679,10 +3667,10 @@
         <v>44</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>159</v>
@@ -3700,7 +3688,7 @@
         <v>215</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>37</v>
@@ -3714,7 +3702,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>39</v>
@@ -3726,19 +3714,19 @@
         <v>119</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>215</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,7 +3734,7 @@
         <v>43813.6630716898</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>32</v>
@@ -3755,7 +3743,7 @@
         <v>91</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>120</v>
@@ -3781,34 +3769,34 @@
         <v>43813.6946475</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>186</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>176</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3819,16 +3807,16 @@
         <v>169</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>96</v>
@@ -3837,13 +3825,13 @@
         <v>53</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>156</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3863,7 +3851,7 @@
         <v>213</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>95</v>
@@ -3898,16 +3886,16 @@
         <v>22</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>74</v>
@@ -3921,25 +3909,25 @@
         <v>43813.8178771296</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="H73" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>103</v>
@@ -3974,7 +3962,7 @@
         <v>186</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>75</v>
@@ -3994,28 +3982,28 @@
         <v>176</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>318</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>215</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>35</v>
@@ -4035,13 +4023,13 @@
         <v>27</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>388</v>
+        <v>244</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>98</v>
@@ -4050,7 +4038,7 @@
         <v>34</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>200</v>
@@ -4067,28 +4055,28 @@
         <v>147</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,13 +4087,13 @@
         <v>70</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>80</v>
@@ -4137,7 +4125,7 @@
         <v>37</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>50</v>
@@ -4146,13 +4134,13 @@
         <v>176</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>72</v>
@@ -4169,7 +4157,7 @@
         <v>91</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>194</v>
@@ -4178,7 +4166,7 @@
         <v>44</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>169</v>
@@ -4187,7 +4175,7 @@
         <v>193</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>403</v>
+        <v>49</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>34</v>
@@ -4207,7 +4195,7 @@
         <v>35</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>161</v>
@@ -4236,13 +4224,13 @@
         <v>43815.1905397222</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>95</v>
@@ -4251,7 +4239,7 @@
         <v>70</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>157</v>

--- a/data/Final - Ne Obliviscaris - Patreon Exclusive Top 10 (Responses).xlsx
+++ b/data/Final - Ne Obliviscaris - Patreon Exclusive Top 10 (Responses).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="395">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -280,7 +280,7 @@
     <t xml:space="preserve">Sinmara - Hvisl Stjarnanna</t>
   </si>
   <si>
-    <t xml:space="preserve">Misthyrming - Algleymi</t>
+    <t xml:space="preserve">Misþyrming - Algleymi</t>
   </si>
   <si>
     <t xml:space="preserve">Obsequiae - The Palms Of Palingenesia</t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">Katharos XIII - Palindrome</t>
   </si>
   <si>
-    <t xml:space="preserve">clipping - There Existed an Addiction to Blood</t>
+    <t xml:space="preserve">clipping. - There Existed an Addiction to Blood</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua Ignota - Caligula</t>
@@ -389,9 +389,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vitriol - to Bathe from the Throat of Cowardice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clipping - there existed an addiction to blood</t>
   </si>
   <si>
     <t xml:space="preserve">East of the Wall - NP Complete</t>
@@ -615,9 +612,6 @@
     <t xml:space="preserve">Not sure</t>
   </si>
   <si>
-    <t xml:space="preserve">Blind Guardian Twilight Orchestra - Legacy of the Dark Lands</t>
-  </si>
-  <si>
     <t xml:space="preserve">Within Temptation - Resist</t>
   </si>
   <si>
@@ -702,9 +696,6 @@
     <t xml:space="preserve">In Mourning - Gardens of Storms</t>
   </si>
   <si>
-    <t xml:space="preserve">Tool - Fear Innoculum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Obsequiae - The Palms Of Sorrowed Kings</t>
   </si>
   <si>
@@ -735,7 +726,7 @@
     <t xml:space="preserve">Hypno5e - A Distant (Dark) Source</t>
   </si>
   <si>
-    <t xml:space="preserve">Blind Guardian Twilight Orchestra - Legacy Of The Dark Lands</t>
+    <t xml:space="preserve">Blind Guardian - Legacy Of The Dark Lands</t>
   </si>
   <si>
     <t xml:space="preserve">STRO - Loma</t>
@@ -744,7 +735,7 @@
     <t xml:space="preserve">Vanden Plas - The Ghost Xperiment - Awakening</t>
   </si>
   <si>
-    <t xml:space="preserve">Swallow the Sun - When A Shadow Is Forced Into The Light.</t>
+    <t xml:space="preserve">Swallow the Sun - When A Shadow Is Forced Into The Light</t>
   </si>
   <si>
     <t xml:space="preserve">Second To Sun - Legacy </t>
@@ -771,15 +762,6 @@
     <t xml:space="preserve">Schammasch - Hearts Of No Light</t>
   </si>
   <si>
-    <t xml:space="preserve">Mysþyrming - Algleymi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clipping. - There Existed an Addiction to Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cult of Luna - A Dawn of Fear</t>
-  </si>
-  <si>
     <t xml:space="preserve">We Lost the Sea - Triumph &amp; Disaster</t>
   </si>
   <si>
@@ -1092,16 +1074,13 @@
     <t xml:space="preserve">Chelsea Wolfe - Birth Of Violence</t>
   </si>
   <si>
-    <t xml:space="preserve">Swallow the Sun - When a Shadow is Forced into Light </t>
+    <t xml:space="preserve">Swallow the Sun - When a Shadow is Forced into the Light </t>
   </si>
   <si>
     <t xml:space="preserve">Equipoise - Demiurgus </t>
   </si>
   <si>
     <t xml:space="preserve">Hath - Of Rot and Ruins </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leprous - Below</t>
   </si>
   <si>
     <t xml:space="preserve">Nightland - Umbra Astra Luna</t>
@@ -1378,13 +1357,13 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.92"/>
@@ -1969,25 +1948,25 @@
         <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>108</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>80</v>
@@ -1998,34 +1977,34 @@
         <v>43792.656153912</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2033,31 +2012,31 @@
         <v>43792.8598762269</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>44</v>
@@ -2068,34 +2047,34 @@
         <v>43792.8870774653</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2109,16 +2088,16 @@
         <v>66</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>32</v>
@@ -2127,10 +2106,10 @@
         <v>21</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2141,13 +2120,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>49</v>
@@ -2156,16 +2135,16 @@
         <v>103</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2176,13 +2155,13 @@
         <v>103</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>34</v>
@@ -2191,16 +2170,16 @@
         <v>102</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2211,22 +2190,22 @@
         <v>75</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2240,13 +2219,13 @@
         <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>72</v>
@@ -2255,7 +2234,7 @@
         <v>70</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>33</v>
@@ -2264,7 +2243,7 @@
         <v>44</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2278,28 +2257,28 @@
         <v>44</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2313,10 +2292,10 @@
         <v>44</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>19</v>
@@ -2334,7 +2313,7 @@
         <v>32</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2342,7 +2321,7 @@
         <v>43793.9183234144</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>32</v>
@@ -2354,10 +2333,10 @@
         <v>44</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>21</v>
@@ -2380,25 +2359,25 @@
         <v>21</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>95</v>
@@ -2418,7 +2397,7 @@
         <v>71</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
@@ -2427,19 +2406,19 @@
         <v>70</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2447,7 +2426,7 @@
         <v>43795.5671493056</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>35</v>
@@ -2456,22 +2435,22 @@
         <v>95</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>75</v>
@@ -2485,16 +2464,16 @@
         <v>95</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>69</v>
@@ -2509,7 +2488,7 @@
         <v>119</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2520,7 +2499,7 @@
         <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>35</v>
@@ -2532,19 +2511,19 @@
         <v>21</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I33" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2552,16 +2531,16 @@
         <v>43797.6703875463</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>44</v>
@@ -2570,7 +2549,7 @@
         <v>21</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>35</v>
@@ -2579,7 +2558,7 @@
         <v>95</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2590,31 +2569,31 @@
         <v>44</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2634,22 +2613,22 @@
         <v>71</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>54</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2657,28 +2636,28 @@
         <v>43798.7449338079</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>70</v>
@@ -2695,28 +2674,28 @@
         <v>75</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>102</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>66</v>
@@ -2727,19 +2706,19 @@
         <v>43799.4337062616</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>70</v>
@@ -2748,13 +2727,13 @@
         <v>44</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>72</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2765,13 +2744,13 @@
         <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>94</v>
@@ -2783,10 +2762,10 @@
         <v>37</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>32</v>
@@ -2797,10 +2776,10 @@
         <v>43805.6717804167</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>34</v>
@@ -2809,22 +2788,22 @@
         <v>91</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>119</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2832,16 +2811,16 @@
         <v>43805.6786796991</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>32</v>
@@ -2850,16 +2829,16 @@
         <v>62</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2867,31 +2846,31 @@
         <v>43805.6935568403</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>96</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>80</v>
@@ -2902,10 +2881,10 @@
         <v>43805.7065647685</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>32</v>
@@ -2917,16 +2896,16 @@
         <v>120</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>44</v>
@@ -2937,10 +2916,10 @@
         <v>43806.1266913889</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>44</v>
@@ -2949,22 +2928,22 @@
         <v>34</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2972,7 +2951,7 @@
         <v>43806.2079588889</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>95</v>
@@ -2981,7 +2960,7 @@
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>31</v>
@@ -2990,7 +2969,7 @@
         <v>24</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>77</v>
@@ -3010,31 +2989,31 @@
         <v>20</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3042,7 +3021,7 @@
         <v>43806.494768831</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>37</v>
@@ -3051,25 +3030,25 @@
         <v>34</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3077,34 +3056,34 @@
         <v>43806.7887649074</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3115,31 +3094,31 @@
         <v>80</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3150,19 +3129,19 @@
         <v>34</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -3177,16 +3156,16 @@
         <v>37</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>105</v>
@@ -3195,10 +3174,10 @@
         <v>80</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
@@ -3209,7 +3188,7 @@
         <v>43809.6841468056</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>80</v>
@@ -3221,22 +3200,22 @@
         <v>95</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>75</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3244,34 +3223,34 @@
         <v>43810.6019918403</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3291,13 +3270,13 @@
         <v>21</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>32</v>
@@ -3306,7 +3285,7 @@
         <v>44</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3317,31 +3296,31 @@
         <v>95</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>48</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3349,7 +3328,7 @@
         <v>43812.3221165509</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>32</v>
@@ -3376,7 +3355,7 @@
         <v>74</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3384,7 +3363,7 @@
         <v>43812.34455</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>35</v>
@@ -3393,7 +3372,7 @@
         <v>37</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>31</v>
@@ -3402,16 +3381,16 @@
         <v>32</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,28 +3401,28 @@
         <v>88</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>34</v>
@@ -3454,10 +3433,10 @@
         <v>43813.0741051852</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>35</v>
@@ -3475,13 +3454,13 @@
         <v>37</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,31 +3468,31 @@
         <v>43813.2332684722</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>119</v>
@@ -3524,10 +3503,10 @@
         <v>43813.4547485995</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>34</v>
@@ -3536,22 +3515,22 @@
         <v>70</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3559,34 +3538,34 @@
         <v>43813.5102390972</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,16 +3573,16 @@
         <v>43813.5538632176</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>83</v>
@@ -3612,36 +3591,36 @@
         <v>37</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>43813.5762827662</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>119</v>
@@ -3650,13 +3629,13 @@
         <v>95</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,13 +3646,13 @@
         <v>44</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>119</v>
@@ -3685,10 +3664,10 @@
         <v>80</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>37</v>
@@ -3702,7 +3681,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>39</v>
@@ -3714,19 +3693,19 @@
         <v>119</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,7 +3713,7 @@
         <v>43813.6630716898</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>32</v>
@@ -3743,7 +3722,7 @@
         <v>91</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>120</v>
@@ -3752,13 +3731,13 @@
         <v>66</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>37</v>
@@ -3769,34 +3748,34 @@
         <v>43813.6946475</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,19 +3783,19 @@
         <v>43813.7299394908</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>96</v>
@@ -3825,13 +3804,13 @@
         <v>53</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3842,22 +3821,22 @@
         <v>14</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>95</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>54</v>
@@ -3866,7 +3845,7 @@
         <v>44</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,16 +3865,16 @@
         <v>22</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>74</v>
@@ -3909,25 +3888,25 @@
         <v>43813.8178771296</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>103</v>
@@ -3959,19 +3938,19 @@
         <v>95</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>75</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,31 +3958,31 @@
         <v>43813.8990720023</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>35</v>
@@ -4023,13 +4002,13 @@
         <v>27</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>98</v>
@@ -4038,10 +4017,10 @@
         <v>34</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4052,31 +4031,31 @@
         <v>62</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,13 +4066,13 @@
         <v>70</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>80</v>
@@ -4125,28 +4104,28 @@
         <v>37</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>72</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,22 +4136,22 @@
         <v>91</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>49</v>
@@ -4195,10 +4174,10 @@
         <v>35</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>67</v>
@@ -4216,7 +4195,7 @@
         <v>32</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,13 +4203,13 @@
         <v>43815.1905397222</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>95</v>
@@ -4239,16 +4218,16 @@
         <v>70</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>22</v>
